--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2544294.438717561</v>
+        <v>-2546908.717334013</v>
       </c>
     </row>
     <row r="7">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>297.607293590734</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851259</v>
+        <v>52.86845664851256</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>88.56166291528443</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>115.8089913668623</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>91.11034837618719</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674306</v>
+        <v>14.08691327674305</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
-        <v>29.89707495507248</v>
+        <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869334</v>
+        <v>100.3033462869333</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792917</v>
+        <v>94.83943180792916</v>
       </c>
       <c r="S4" t="n">
         <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>121.3041012844407</v>
       </c>
       <c r="U4" t="n">
         <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>108.2462644793332</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>162.6828958164084</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>40.58273173228109</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>69.25160695998036</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>77.06781329991821</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>228.4230104820751</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,13 +1294,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>136.9302730134918</v>
+        <v>14.20241529279367</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.6452826062320446</v>
       </c>
       <c r="S13" t="n">
-        <v>113.7076464771381</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>45.31583743121449</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>154.0370966050005</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892437</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.0929686256684</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>205.9682521389953</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085811999</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227926</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892437</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2719,19 +2719,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541839</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972055</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1583.504630213733</v>
+        <v>1555.982076222239</v>
       </c>
       <c r="C2" t="n">
-        <v>1214.542113273321</v>
+        <v>1187.019559281827</v>
       </c>
       <c r="D2" t="n">
-        <v>1214.542113273321</v>
+        <v>828.7538606750769</v>
       </c>
       <c r="E2" t="n">
-        <v>828.753860675077</v>
+        <v>828.7538606750769</v>
       </c>
       <c r="F2" t="n">
-        <v>828.753860675077</v>
+        <v>828.7538606750769</v>
       </c>
       <c r="G2" t="n">
-        <v>413.3855650443556</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="H2" t="n">
-        <v>112.7721371749273</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178319</v>
+        <v>59.36965571178317</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734989</v>
+        <v>223.6389510734994</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447431</v>
+        <v>520.5745606447442</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185017</v>
+        <v>925.8512030185029</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552357</v>
+        <v>1408.468993552358</v>
       </c>
       <c r="N2" t="n">
         <v>1903.509852877248</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384226</v>
+        <v>2357.627637384225</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215712</v>
+        <v>2710.705659215711</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719474</v>
+        <v>2927.679802719473</v>
       </c>
       <c r="R2" t="n">
         <v>2968.482785589159</v>
@@ -4358,22 +4358,22 @@
         <v>2851.450538338333</v>
       </c>
       <c r="T2" t="n">
-        <v>2644.177727152601</v>
+        <v>2644.1777271526</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.623582788379</v>
+        <v>2390.623582788378</v>
       </c>
       <c r="V2" t="n">
-        <v>2059.560695444809</v>
+        <v>2059.560695444808</v>
       </c>
       <c r="W2" t="n">
-        <v>1970.104470277855</v>
+        <v>2059.560695444808</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.104470277855</v>
+        <v>2059.560695444808</v>
       </c>
       <c r="Y2" t="n">
-        <v>1970.104470277855</v>
+        <v>1942.581916286361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1341.528820902747</v>
+        <v>1341.528820902746</v>
       </c>
       <c r="C3" t="n">
-        <v>1167.07579162162</v>
+        <v>1167.075791621619</v>
       </c>
       <c r="D3" t="n">
-        <v>1018.141381960369</v>
+        <v>1018.141381960368</v>
       </c>
       <c r="E3" t="n">
-        <v>858.9039269549132</v>
+        <v>858.9039269549123</v>
       </c>
       <c r="F3" t="n">
-        <v>712.3693689817982</v>
+        <v>712.3693689817973</v>
       </c>
       <c r="G3" t="n">
-        <v>575.847977529932</v>
+        <v>575.8479775299311</v>
       </c>
       <c r="H3" t="n">
-        <v>483.8173226044904</v>
+        <v>483.8173226044895</v>
       </c>
       <c r="I3" t="n">
-        <v>469.5881172744469</v>
+        <v>469.588117274446</v>
       </c>
       <c r="J3" t="n">
-        <v>673.4380622645638</v>
+        <v>548.6079372775581</v>
       </c>
       <c r="K3" t="n">
-        <v>886.6503454665589</v>
+        <v>1001.568037510599</v>
       </c>
       <c r="L3" t="n">
-        <v>1219.663113416801</v>
+        <v>1334.580805460842</v>
       </c>
       <c r="M3" t="n">
-        <v>1627.630174589483</v>
+        <v>1742.547866633523</v>
       </c>
       <c r="N3" t="n">
-        <v>2060.803554843274</v>
+        <v>2175.721246887315</v>
       </c>
       <c r="O3" t="n">
-        <v>2434.852775287804</v>
+        <v>2549.770467331845</v>
       </c>
       <c r="P3" t="n">
-        <v>2715.727185213051</v>
+        <v>2830.644877257092</v>
       </c>
       <c r="Q3" t="n">
         <v>2968.482785589159</v>
@@ -4434,25 +4434,25 @@
         <v>2968.482785589159</v>
       </c>
       <c r="S3" t="n">
-        <v>2836.104707899345</v>
+        <v>2836.104707899344</v>
       </c>
       <c r="T3" t="n">
-        <v>2642.823682619126</v>
+        <v>2642.823682619125</v>
       </c>
       <c r="U3" t="n">
-        <v>2414.745421853246</v>
+        <v>2414.745421853245</v>
       </c>
       <c r="V3" t="n">
-        <v>2179.593313621504</v>
+        <v>2179.593313621503</v>
       </c>
       <c r="W3" t="n">
-        <v>1925.355956893302</v>
+        <v>1925.355956893301</v>
       </c>
       <c r="X3" t="n">
-        <v>1717.504456687769</v>
+        <v>1717.504456687768</v>
       </c>
       <c r="Y3" t="n">
-        <v>1509.744157922815</v>
+        <v>1509.744157922814</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1686.110066593352</v>
+        <v>1089.774637867716</v>
       </c>
       <c r="C4" t="n">
-        <v>1686.110066593352</v>
+        <v>920.8384549398093</v>
       </c>
       <c r="D4" t="n">
-        <v>1535.993427181017</v>
+        <v>770.7218155274735</v>
       </c>
       <c r="E4" t="n">
-        <v>1535.993427181017</v>
+        <v>622.8087219450804</v>
       </c>
       <c r="F4" t="n">
-        <v>1535.993427181016</v>
+        <v>475.9187744471701</v>
       </c>
       <c r="G4" t="n">
-        <v>1368.157884460172</v>
+        <v>308.0832317263263</v>
       </c>
       <c r="H4" t="n">
-        <v>1337.958818848988</v>
+        <v>160.6861671127259</v>
       </c>
       <c r="I4" t="n">
-        <v>1236.642307448045</v>
+        <v>59.36965571178317</v>
       </c>
       <c r="J4" t="n">
-        <v>1272.569327125722</v>
+        <v>95.29667538945995</v>
       </c>
       <c r="K4" t="n">
-        <v>1461.445293514083</v>
+        <v>284.1726417778211</v>
       </c>
       <c r="L4" t="n">
-        <v>1758.66793737489</v>
+        <v>581.3952856386281</v>
       </c>
       <c r="M4" t="n">
-        <v>2082.436664730858</v>
+        <v>905.1640129945961</v>
       </c>
       <c r="N4" t="n">
-        <v>2403.941511830843</v>
+        <v>1226.66886009458</v>
       </c>
       <c r="O4" t="n">
-        <v>2684.886979680607</v>
+        <v>1507.614327944345</v>
       </c>
       <c r="P4" t="n">
-        <v>2901.763680026544</v>
+        <v>1724.491028290282</v>
       </c>
       <c r="Q4" t="n">
-        <v>2968.482785589159</v>
+        <v>1791.210133852898</v>
       </c>
       <c r="R4" t="n">
-        <v>2872.685379722564</v>
+        <v>1695.412727986303</v>
       </c>
       <c r="S4" t="n">
-        <v>2678.686790229447</v>
+        <v>1501.414138493185</v>
       </c>
       <c r="T4" t="n">
-        <v>2678.686790229447</v>
+        <v>1378.884743256376</v>
       </c>
       <c r="U4" t="n">
-        <v>2389.576684840787</v>
+        <v>1089.774637867716</v>
       </c>
       <c r="V4" t="n">
-        <v>2134.8921966349</v>
+        <v>1089.774637867716</v>
       </c>
       <c r="W4" t="n">
-        <v>2134.8921966349</v>
+        <v>1089.774637867716</v>
       </c>
       <c r="X4" t="n">
-        <v>1906.902645736882</v>
+        <v>1089.774637867716</v>
       </c>
       <c r="Y4" t="n">
-        <v>1686.110066593352</v>
+        <v>1089.774637867716</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1664.678443125552</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.71592618514</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D5" t="n">
-        <v>937.45022757839</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>528.4218742137277</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4580,37 +4580,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.278283189674</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>814.7868627196261</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>645.8506797917192</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>645.8506797917192</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>497.9375862093261</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>351.0476387114157</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4729,46 +4729,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U7" t="n">
-        <v>1575.827088531452</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="V7" t="n">
-        <v>1575.827088531452</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.827088531452</v>
+        <v>1224.424878447883</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>996.4353275498659</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>996.4353275498659</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1832.276849100055</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="C8" t="n">
-        <v>1463.314332159643</v>
+        <v>994.1614947556893</v>
       </c>
       <c r="D8" t="n">
-        <v>1105.048633552892</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>719.2603809546481</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>308.2744761650405</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>297.2424300504411</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X8" t="n">
-        <v>2609.016021139988</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y8" t="n">
-        <v>2218.876689164176</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4902,7 +4902,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125857</v>
@@ -4911,16 +4911,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>785.6801677492715</v>
+        <v>567.613649430832</v>
       </c>
       <c r="C10" t="n">
-        <v>616.7439848213646</v>
+        <v>398.6774665029251</v>
       </c>
       <c r="D10" t="n">
-        <v>616.7439848213646</v>
+        <v>248.5608270905894</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1705.527932658019</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1416.110762621059</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X10" t="n">
-        <v>1188.121211723041</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="Y10" t="n">
-        <v>967.3286325795112</v>
+        <v>749.2621142610717</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5130,7 +5130,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135294</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856225</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>550.6376870732868</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908937</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908937</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.311282967905</v>
       </c>
       <c r="S13" t="n">
-        <v>2332.106875017495</v>
+        <v>2263.456448622809</v>
       </c>
       <c r="T13" t="n">
-        <v>2112.505410040436</v>
+        <v>2043.85498364575</v>
       </c>
       <c r="U13" t="n">
-        <v>1823.430183384634</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="V13" t="n">
-        <v>1568.745695178747</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W13" t="n">
-        <v>1279.328525141786</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X13" t="n">
-        <v>1051.338974243769</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="14">
@@ -5276,22 +5276,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>577.8620388433919</v>
+        <v>996.5276398439761</v>
       </c>
       <c r="C16" t="n">
-        <v>408.925855915485</v>
+        <v>827.5914569160692</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>677.4748175037334</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1497.70980375214</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1208.292633715179</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>980.3030828171618</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="Y16" t="n">
-        <v>759.5105036736317</v>
+        <v>1178.176104674216</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5601,10 +5601,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y19" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5838,10 +5838,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2238.914344045922</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1949.83911739012</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1695.154629184233</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958732</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>633.9926444679662</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>483.8760050556305</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>483.8760050556305</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>483.8760050556305</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.35942226766</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261129</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6397,37 +6397,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,7 +6652,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6786,16 +6786,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6838,7 +6838,7 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942654</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7026,13 +7026,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7260,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7315,13 +7315,13 @@
         <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,10 +7330,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311324</v>
@@ -7348,10 +7348,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>242.1695121525719</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.0784768121634</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447089</v>
+        <v>9.872575263447061</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>260.6793058021286</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>270.4289472891913</v>
       </c>
     </row>
     <row r="3">
@@ -22705,22 +22705,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>116.026019012392</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>98.80619477595907</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>65.72996410388987</v>
       </c>
       <c r="S13" t="n">
-        <v>67.31863952450648</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>101.1181252153547</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>63.36835372228711</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194166</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.49168472642634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>11.437198188293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.9259388694762549</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1134994.746853628</v>
+        <v>1134994.746853627</v>
       </c>
     </row>
     <row r="3">
@@ -26320,10 +26320,10 @@
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="G2" t="n">
         <v>20178.66499225015</v>
@@ -26335,25 +26335,25 @@
         <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.4934397302</v>
+        <v>95186.49343972979</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818043</v>
+        <v>213599.1454818042</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359956</v>
+        <v>22978.01038359958</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>15667.67952732123</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314487</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179352</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="I4" t="n">
-        <v>11167.03225179354</v>
-      </c>
       <c r="J4" t="n">
+        <v>19157.89151488698</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19157.89151488698</v>
+      </c>
+      <c r="L4" t="n">
         <v>19157.891514887</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19157.89151488699</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19157.89151488704</v>
       </c>
       <c r="M4" t="n">
         <v>19157.89151488698</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488698</v>
+        <v>19157.89151488699</v>
       </c>
       <c r="O4" t="n">
         <v>19157.89151488698</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1328974.703139052</v>
+        <v>-1329404.26200564</v>
       </c>
       <c r="C6" t="n">
-        <v>-272948.4567776612</v>
+        <v>-272948.4567776609</v>
       </c>
       <c r="D6" t="n">
         <v>-177761.963337931</v>
       </c>
       <c r="E6" t="n">
-        <v>-417523.3588908057</v>
+        <v>-417558.0968162416</v>
       </c>
       <c r="F6" t="n">
-        <v>-92110.89708345047</v>
+        <v>-92145.63500888618</v>
       </c>
       <c r="G6" t="n">
-        <v>-92110.89708345049</v>
+        <v>-92145.63500888617</v>
       </c>
       <c r="H6" t="n">
-        <v>-92110.89708345047</v>
+        <v>-92145.63500888619</v>
       </c>
       <c r="I6" t="n">
-        <v>-92110.8970834505</v>
+        <v>-92145.63500888618</v>
       </c>
       <c r="J6" t="n">
-        <v>-315395.1086039996</v>
+        <v>-315395.1086039995</v>
       </c>
       <c r="K6" t="n">
-        <v>-124773.9735057948</v>
+        <v>-124773.9735057949</v>
       </c>
       <c r="L6" t="n">
         <v>-101795.9631221953</v>
       </c>
       <c r="M6" t="n">
-        <v>-186850.9910577072</v>
+        <v>-186850.9910577071</v>
       </c>
       <c r="N6" t="n">
         <v>-101795.9631221953</v>
       </c>
       <c r="O6" t="n">
-        <v>-121223.6811158271</v>
+        <v>-121223.681115827</v>
       </c>
       <c r="P6" t="n">
         <v>-101795.9631221953</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
         <v>24.28464749203976</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972896</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396915</v>
+        <v>72.8556464639687</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972896</v>
       </c>
       <c r="C4" t="n">
         <v>89.28075900500289</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972897</v>
+        <v>742.1206963972896</v>
       </c>
       <c r="K4" t="n">
         <v>89.28075900500289</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972896</v>
       </c>
       <c r="K4" t="n">
         <v>89.28075900500289</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>273.6841055929285</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>248.2388298370451</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>125.4430765267471</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>216.9602312456325</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>277.6152283207647</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>66.18475390524534</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>9.503689633077386</v>
+        <v>132.2315473537755</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720917</v>
+        <v>4.088124840720918</v>
       </c>
       <c r="H2" t="n">
-        <v>41.8675085250331</v>
+        <v>41.86750852503312</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
@@ -31051,37 +31051,37 @@
         <v>346.9744857001373</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078538</v>
+        <v>520.0248102078539</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020666</v>
+        <v>645.1367608020669</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382373</v>
+        <v>717.8389509382374</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419357</v>
+        <v>729.4543356419358</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570169</v>
+        <v>688.8030442570172</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517193</v>
+        <v>587.8774622517194</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934013</v>
+        <v>441.4714913934014</v>
       </c>
       <c r="R2" t="n">
         <v>256.8006720259356</v>
       </c>
       <c r="S2" t="n">
-        <v>93.158144807928</v>
+        <v>93.15814480792801</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025582</v>
+        <v>17.89576649025583</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576733</v>
+        <v>0.3270499872576734</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863085</v>
+        <v>2.187339625863086</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030927</v>
+        <v>21.12509586030928</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467202</v>
+        <v>75.30971957467203</v>
       </c>
       <c r="J3" t="n">
         <v>206.6556266698102</v>
@@ -31133,19 +31133,19 @@
         <v>353.2073816026369</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629475</v>
+        <v>474.9309130629476</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004842</v>
+        <v>554.2219745004843</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265574</v>
+        <v>568.8905810265575</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429594</v>
+        <v>520.4237398429595</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913465</v>
+        <v>417.6859325913466</v>
       </c>
       <c r="Q3" t="n">
         <v>279.2119845224528</v>
@@ -31154,10 +31154,10 @@
         <v>135.8069287005169</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092175</v>
+        <v>40.62887419092176</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404273</v>
+        <v>8.816513667404275</v>
       </c>
       <c r="U3" t="n">
         <v>0.1439039227541504</v>
@@ -31203,40 +31203,40 @@
         <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032493</v>
+        <v>55.14712864032494</v>
       </c>
       <c r="J4" t="n">
-        <v>129.6490989830129</v>
+        <v>129.649098983013</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585708</v>
+        <v>213.0532962585709</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283778</v>
+        <v>272.6348675283779</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795412</v>
+        <v>287.4552415795413</v>
       </c>
       <c r="N4" t="n">
-        <v>280.6201984288361</v>
+        <v>280.6201984288362</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443083</v>
+        <v>259.1981729443084</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219112</v>
+        <v>221.7888148219113</v>
       </c>
       <c r="Q4" t="n">
         <v>153.5550791735287</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924031</v>
+        <v>82.45395956924033</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878562</v>
+        <v>31.95799443878563</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881712</v>
+        <v>7.835293367881714</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,37 +31355,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31394,7 +31394,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31443,16 +31443,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31461,19 +31461,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31850,10 +31850,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496635</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>188.4731159523455</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>639.4703354763103</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.928581173451</v>
+        <v>165.9285811734511</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628732</v>
+        <v>299.9349591628733</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320794</v>
+        <v>409.3703458320796</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109646</v>
+        <v>487.4927177109647</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453448</v>
+        <v>500.0412720453449</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353302</v>
+        <v>458.7048328353304</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964498</v>
+        <v>356.6444664964499</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189518</v>
+        <v>219.1658015189519</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180344</v>
+        <v>41.2151342118035</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>205.9090353435523</v>
+        <v>79.81800000314354</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282779</v>
+        <v>457.5354547808498</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830733</v>
+        <v>336.3765332830734</v>
       </c>
       <c r="M3" t="n">
-        <v>412.0879405784659</v>
+        <v>412.087940578466</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432241</v>
+        <v>437.5488689432242</v>
       </c>
       <c r="O3" t="n">
-        <v>377.827495398515</v>
+        <v>377.8274953985151</v>
       </c>
       <c r="P3" t="n">
         <v>283.7115251770163</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.3086872485947</v>
+        <v>139.2302104364313</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634017</v>
+        <v>36.2899188663402</v>
       </c>
       <c r="K4" t="n">
         <v>190.783804432688</v>
@@ -34863,19 +34863,19 @@
         <v>300.224892788694</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413818</v>
+        <v>327.0391185413819</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080647</v>
+        <v>324.7523708080648</v>
       </c>
       <c r="O4" t="n">
-        <v>283.783300858348</v>
+        <v>283.7833008583481</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868047</v>
+        <v>219.0673740868048</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183428</v>
+        <v>67.39303592183431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>197.8432633066783</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663302</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>45.87687150790109</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>508.128623392977</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
